--- a/SPEKTRAL_ANALİZ/EXCELLER/trabzon_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/trabzon_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.4432603429459423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.482512077759188</v>
+        <v>0.3982772011240865</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.4788033222426631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4348198726932648</v>
+        <v>0.354178992719396</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>0.4122227757648954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3702737863947556</v>
+        <v>0.3366826733785392</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.4201287421525412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3273360893702564</v>
+        <v>0.3467947803817602</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>0.389151982689211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3252527132672987</v>
+        <v>0.3652106619042792</v>
       </c>
     </row>
     <row r="7">
@@ -532,10 +532,10 @@
         <v>37591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5840136150120722</v>
+        <v>0.4083176893250873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3511591802963103</v>
+        <v>0.3740842356811994</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>0.4035392804269908</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3769540180687366</v>
+        <v>0.3747233659002795</v>
       </c>
     </row>
     <row r="9">
@@ -563,7 +563,7 @@
         <v>0.4330090976731601</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3879920535685326</v>
+        <v>0.3835558628125552</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         <v>0.3344946626149291</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394745714170325</v>
+        <v>0.4111305714438688</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +591,7 @@
         <v>0.3122513047138047</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4165725607782306</v>
+        <v>0.4463772835272809</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
         <v>0.3359298835125448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4553649178753076</v>
+        <v>0.4632565501046991</v>
       </c>
     </row>
     <row r="13">
@@ -619,7 +619,7 @@
         <v>0.3172218545751634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4873056879710048</v>
+        <v>0.4443340236448441</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +633,7 @@
         <v>0.3158365815412186</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4826765120431641</v>
+        <v>0.3983655109466531</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +647,7 @@
         <v>0.3078636044880785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4349843069772409</v>
+        <v>0.3542673025419624</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +661,7 @@
         <v>0.2934392031730347</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3704382206787319</v>
+        <v>0.3367709832011058</v>
       </c>
     </row>
     <row r="17">
@@ -672,10 +672,10 @@
         <v>37895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2849983132517319</v>
+        <v>0.2850057057248502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3275005236542327</v>
+        <v>0.3468830902043267</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +689,7 @@
         <v>0.3724462609536315</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3254171475512748</v>
+        <v>0.3652989717268457</v>
       </c>
     </row>
     <row r="19">
@@ -703,7 +703,7 @@
         <v>0.3226264596353061</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3513236145802865</v>
+        <v>0.3741725455037658</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +717,7 @@
         <v>0.362533725273569</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3771184523527127</v>
+        <v>0.374811675722846</v>
       </c>
     </row>
     <row r="21">
@@ -731,7 +731,7 @@
         <v>0.418848517168335</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3881564878525088</v>
+        <v>0.3836441726351216</v>
       </c>
     </row>
     <row r="22">
@@ -745,7 +745,7 @@
         <v>0.4379720385412937</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3949101484543013</v>
+        <v>0.4112188812664354</v>
       </c>
     </row>
     <row r="23">
@@ -759,7 +759,7 @@
         <v>0.4229458728720957</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4167369950622067</v>
+        <v>0.4464655933498474</v>
       </c>
     </row>
     <row r="24">
@@ -773,7 +773,7 @@
         <v>0.5012627882967119</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4555293521592837</v>
+        <v>0.4633448599272656</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +787,7 @@
         <v>0.5066900975333041</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4874701222549809</v>
+        <v>0.4444223334674107</v>
       </c>
     </row>
     <row r="26">
@@ -801,7 +801,7 @@
         <v>0.4474279315773443</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4828409463271403</v>
+        <v>0.3984538207692196</v>
       </c>
     </row>
     <row r="27">
@@ -815,7 +815,7 @@
         <v>0.4753524471574086</v>
       </c>
       <c r="D27" t="n">
-        <v>0.435148741261217</v>
+        <v>0.3543556123645289</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +829,7 @@
         <v>0.4169938858695652</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3706026549627079</v>
+        <v>0.3368592930236722</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +843,7 @@
         <v>0.3060464001870033</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3276649579382088</v>
+        <v>0.3469714000268932</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +857,7 @@
         <v>0.3335388791872014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.325581581835251</v>
+        <v>0.3653872815494121</v>
       </c>
     </row>
     <row r="31">
@@ -871,7 +871,7 @@
         <v>0.346682618379884</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3514880488642627</v>
+        <v>0.3742608553263323</v>
       </c>
     </row>
     <row r="32">
@@ -885,7 +885,7 @@
         <v>0.3613057619849286</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3772828866366889</v>
+        <v>0.3748999855454124</v>
       </c>
     </row>
     <row r="33">
@@ -899,7 +899,7 @@
         <v>0.3951852267980557</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3883209221364849</v>
+        <v>0.3837324824576881</v>
       </c>
     </row>
     <row r="34">
@@ -913,7 +913,7 @@
         <v>0.3957011538307981</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3950745827382774</v>
+        <v>0.4113071910890017</v>
       </c>
     </row>
     <row r="35">
@@ -927,7 +927,7 @@
         <v>0.4340509783798577</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4169014293461831</v>
+        <v>0.4465539031724139</v>
       </c>
     </row>
     <row r="36">
@@ -941,7 +941,7 @@
         <v>0.5185089508337229</v>
       </c>
       <c r="D36" t="n">
-        <v>0.45569378644326</v>
+        <v>0.4634331697498321</v>
       </c>
     </row>
     <row r="37">
@@ -955,7 +955,7 @@
         <v>0.5354698268921095</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4876345565389571</v>
+        <v>0.444510643289977</v>
       </c>
     </row>
     <row r="38">
@@ -969,7 +969,7 @@
         <v>0.518006832437276</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4830053806111165</v>
+        <v>0.3985421305917861</v>
       </c>
     </row>
     <row r="39">
@@ -983,7 +983,7 @@
         <v>0.5013422127000318</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4353131755451934</v>
+        <v>0.3544439221870955</v>
       </c>
     </row>
     <row r="40">
@@ -997,7 +997,7 @@
         <v>0.4603304649758454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3707670892466844</v>
+        <v>0.3369476028462386</v>
       </c>
     </row>
     <row r="41">
@@ -1008,10 +1008,10 @@
         <v>38626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4817286108028237</v>
+        <v>0.4817126864733218</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3278293922221851</v>
+        <v>0.3470597098494596</v>
       </c>
     </row>
     <row r="42">
@@ -1025,7 +1025,7 @@
         <v>0.3920551580228051</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3257460161192272</v>
+        <v>0.3654755913719787</v>
       </c>
     </row>
     <row r="43">
@@ -1039,7 +1039,7 @@
         <v>0.3680171694734184</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3516524831482387</v>
+        <v>0.3743491651488988</v>
       </c>
     </row>
     <row r="44">
@@ -1053,7 +1053,7 @@
         <v>0.387583851744134</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3774473209206651</v>
+        <v>0.374988295367979</v>
       </c>
     </row>
     <row r="45">
@@ -1067,7 +1067,7 @@
         <v>0.2974580659164251</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3884853564204611</v>
+        <v>0.3838207922802546</v>
       </c>
     </row>
     <row r="46">
@@ -1081,7 +1081,7 @@
         <v>0.3842895341665503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3952390170222536</v>
+        <v>0.4113955009115681</v>
       </c>
     </row>
     <row r="47">
@@ -1095,7 +1095,7 @@
         <v>0.4629340524091025</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4170658636301592</v>
+        <v>0.4466422129949804</v>
       </c>
     </row>
     <row r="48">
@@ -1109,7 +1109,7 @@
         <v>0.4939631976446493</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4558582207272359</v>
+        <v>0.4635214795723985</v>
       </c>
     </row>
     <row r="49">
@@ -1123,7 +1123,7 @@
         <v>0.5154034722222222</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4877989908229333</v>
+        <v>0.4445989531125435</v>
       </c>
     </row>
     <row r="50">
@@ -1133,12 +1133,8 @@
       <c r="B50" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.5536007533955858</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4831698148950927</v>
-      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1151,7 +1147,7 @@
         <v>0.4165998422159888</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4354776098291697</v>
+        <v>0.354532232009662</v>
       </c>
     </row>
     <row r="52">
@@ -1165,7 +1161,7 @@
         <v>0.3750133353462158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3709315235306602</v>
+        <v>0.3370359126688051</v>
       </c>
     </row>
     <row r="53">
@@ -1179,7 +1175,7 @@
         <v>0.3392761893124797</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3279938265061613</v>
+        <v>0.347148019672026</v>
       </c>
     </row>
     <row r="54">
@@ -1193,7 +1189,7 @@
         <v>0.3788712981261894</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3259104504032033</v>
+        <v>0.3655639011945451</v>
       </c>
     </row>
     <row r="55">
@@ -1207,7 +1203,7 @@
         <v>0.3257975390424988</v>
       </c>
       <c r="D55" t="n">
-        <v>0.351816917432215</v>
+        <v>0.3744374749714653</v>
       </c>
     </row>
     <row r="56">
@@ -1221,7 +1217,7 @@
         <v>0.2630981321808548</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3776117552046412</v>
+        <v>0.3750766051905454</v>
       </c>
     </row>
     <row r="57">
@@ -1235,7 +1231,7 @@
         <v>0.3356555714224095</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3886497907044373</v>
+        <v>0.3839091021028211</v>
       </c>
     </row>
     <row r="58">
@@ -1249,7 +1245,7 @@
         <v>0.3632856328892006</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3954034513062297</v>
+        <v>0.4114838107341345</v>
       </c>
     </row>
     <row r="59">
@@ -1263,7 +1259,7 @@
         <v>0.3668670138888889</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4172302979141351</v>
+        <v>0.4467305228175466</v>
       </c>
     </row>
     <row r="60">
@@ -1277,7 +1273,7 @@
         <v>0.3511764723851417</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4560226550112123</v>
+        <v>0.463609789394965</v>
       </c>
     </row>
     <row r="61">
@@ -1291,7 +1287,7 @@
         <v>0.4093273148148148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4879634251069094</v>
+        <v>0.44468726293511</v>
       </c>
     </row>
     <row r="62">
@@ -1305,7 +1301,7 @@
         <v>0.3707539701007268</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4833342491790691</v>
+        <v>0.3987187502369194</v>
       </c>
     </row>
     <row r="63">
@@ -1319,7 +1315,7 @@
         <v>0.3413017487032214</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4356420441131459</v>
+        <v>0.3546205418322285</v>
       </c>
     </row>
     <row r="64">
@@ -1333,7 +1329,7 @@
         <v>0.2916848429951691</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3710959578146367</v>
+        <v>0.3371242224913716</v>
       </c>
     </row>
     <row r="65">
@@ -1347,7 +1343,7 @@
         <v>0.2503660686457846</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3281582607901373</v>
+        <v>0.3472363294945926</v>
       </c>
     </row>
     <row r="66">
@@ -1361,7 +1357,7 @@
         <v>0.3188788795041512</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3260748846871794</v>
+        <v>0.3656522110171114</v>
       </c>
     </row>
     <row r="67">
@@ -1375,7 +1371,7 @@
         <v>0.3698658663245357</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3519813517161912</v>
+        <v>0.3745257847940318</v>
       </c>
     </row>
     <row r="68">
@@ -1389,7 +1385,7 @@
         <v>0.3438766066166575</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3777761894886176</v>
+        <v>0.3751649150131119</v>
       </c>
     </row>
     <row r="69">
@@ -1403,7 +1399,7 @@
         <v>0.2614767154301637</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3888142249884136</v>
+        <v>0.3839974119253874</v>
       </c>
     </row>
     <row r="70">
@@ -1417,7 +1413,7 @@
         <v>0.2764073244463869</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3955678855902059</v>
+        <v>0.4115721205567013</v>
       </c>
     </row>
     <row r="71">
@@ -1431,7 +1427,7 @@
         <v>0.3745614583333333</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4173947321981114</v>
+        <v>0.4468188326401131</v>
       </c>
     </row>
     <row r="72">
@@ -1445,7 +1441,7 @@
         <v>0.4365807470492341</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4561870892951885</v>
+        <v>0.4636980992175315</v>
       </c>
     </row>
     <row r="73">
@@ -1459,7 +1455,7 @@
         <v>0.44320612739716</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4881278593908857</v>
+        <v>0.4447755727576763</v>
       </c>
     </row>
     <row r="74">
@@ -1473,7 +1469,7 @@
         <v>0.4285635080645161</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4834986834630451</v>
+        <v>0.3988070600594856</v>
       </c>
     </row>
     <row r="75">
@@ -1487,7 +1483,7 @@
         <v>0.3816905367395605</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4358064783971225</v>
+        <v>0.3547088516547952</v>
       </c>
     </row>
     <row r="76">
@@ -1501,7 +1497,7 @@
         <v>0.2975090867918314</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3712603920986129</v>
+        <v>0.3372125323139381</v>
       </c>
     </row>
     <row r="77">
@@ -1515,7 +1511,7 @@
         <v>0.2942935629967275</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3283226950741135</v>
+        <v>0.3473246393171591</v>
       </c>
     </row>
     <row r="78">
@@ -1525,12 +1521,8 @@
       <c r="B78" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.2428795697006295</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.3262393189711555</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1543,7 +1535,7 @@
         <v>0.2988261648745519</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3521457860001674</v>
+        <v>0.3746140946165982</v>
       </c>
     </row>
     <row r="80">
@@ -1557,7 +1549,7 @@
         <v>0.2851180534504905</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3779406237725935</v>
+        <v>0.3752532248356784</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1563,7 @@
         <v>0.4150774936868687</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3889786592723897</v>
+        <v>0.3840857217479539</v>
       </c>
     </row>
     <row r="82">
@@ -1585,7 +1577,7 @@
         <v>0.3866260697032436</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3957323198741822</v>
+        <v>0.4116604303792677</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1587,9 @@
       <c r="B83" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>0.4509067322530864</v>
+      </c>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1606,10 +1600,10 @@
         <v>39934</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4509067322530864</v>
+        <v>0.4191141656602254</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4563515235791641</v>
+        <v>0.4469071424626795</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1614,10 @@
         <v>39965</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4191141656602254</v>
+        <v>0.4712941899585921</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4882922936748618</v>
+        <v>0.4637864090400979</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1628,10 @@
         <v>39995</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4712941899585921</v>
+        <v>0.3816484094982079</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4836631177470213</v>
+        <v>0.4448638825802428</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1642,10 @@
         <v>40026</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3816484094982079</v>
+        <v>0.342871875</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4359709126810979</v>
+        <v>0.398895369882052</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1656,10 @@
         <v>40057</v>
       </c>
       <c r="C88" t="n">
-        <v>0.342871875</v>
+        <v>0.2960278453236027</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3714248263825892</v>
+        <v>0.3547971614773612</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1670,10 @@
         <v>40087</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2960278453236027</v>
+        <v>0.3438104047777119</v>
       </c>
       <c r="D89" t="n">
-        <v>0.32848712935809</v>
+        <v>0.3373008421365045</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1684,10 @@
         <v>40118</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3438104047777119</v>
+        <v>0.41762243738601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3264037532551318</v>
+        <v>0.3474129491397253</v>
       </c>
     </row>
     <row r="91">
@@ -1703,11 +1697,9 @@
       <c r="B91" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.41762243738601</v>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>0.3523102202841435</v>
+        <v>0.3658288306622444</v>
       </c>
     </row>
     <row r="92">
@@ -1717,12 +1709,8 @@
       <c r="B92" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="C92" t="n">
-        <v>0.5617968617575235</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.3781050580565699</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1731,12 +1719,8 @@
       <c r="B93" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="C93" t="n">
-        <v>0.5822555514692528</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.3891430935563658</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1745,12 +1729,8 @@
       <c r="B94" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="C94" t="n">
-        <v>0.5999363443532014</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.3958967541581582</v>
-      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1760,11 +1740,9 @@
         <v>40269</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5633267310789051</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.4177236007660636</v>
-      </c>
+        <v>0.5186790994623656</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1773,11 +1751,9 @@
       <c r="B96" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="C96" t="n">
-        <v>0.5186790994623656</v>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>0.4565159578631408</v>
+        <v>0.446995452285246</v>
       </c>
     </row>
     <row r="97">
@@ -1787,12 +1763,8 @@
       <c r="B97" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="C97" t="n">
-        <v>0.5944261171497585</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.4884567279588381</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1802,11 +1774,9 @@
         <v>40360</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6591752420771531</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.4838275520309975</v>
-      </c>
+        <v>0.4322798941798942</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1816,11 +1786,9 @@
         <v>40391</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5723075920495275</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.4361353469650749</v>
-      </c>
+        <v>0.4236785501781996</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1830,10 +1798,10 @@
         <v>40422</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4322798941798942</v>
+        <v>0.3725628742784993</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3715892606665654</v>
+        <v>0.3989836797046185</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1812,10 @@
         <v>40452</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4236785501781996</v>
+        <v>0.5158269420457577</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3286515636420658</v>
+        <v>0.3548854712999281</v>
       </c>
     </row>
     <row r="102">
@@ -1858,10 +1826,10 @@
         <v>40483</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3725628742784993</v>
+        <v>0.533549896516144</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3265681875391081</v>
+        <v>0.337389151959071</v>
       </c>
     </row>
     <row r="103">
@@ -1872,10 +1840,10 @@
         <v>40513</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5158269420457577</v>
+        <v>0.4988767502395695</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3524746545681197</v>
+        <v>0.347501258962292</v>
       </c>
     </row>
     <row r="104">
@@ -1886,10 +1854,10 @@
         <v>40544</v>
       </c>
       <c r="C104" t="n">
-        <v>0.533549896516144</v>
+        <v>0.4427989156602626</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3782694923405458</v>
+        <v>0.3659171404848111</v>
       </c>
     </row>
     <row r="105">
@@ -1900,10 +1868,10 @@
         <v>40575</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4988767502395695</v>
+        <v>0.4329407263936219</v>
       </c>
       <c r="D105" t="n">
-        <v>0.389307527840342</v>
+        <v>0.3747907142617311</v>
       </c>
     </row>
     <row r="106">
@@ -1914,10 +1882,10 @@
         <v>40603</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4427989156602626</v>
+        <v>0.4446636424731183</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3960611884421345</v>
+        <v>0.3754298444808112</v>
       </c>
     </row>
     <row r="107">
@@ -1928,10 +1896,10 @@
         <v>40634</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4329407263936219</v>
+        <v>0.4811041666666667</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4178880350500402</v>
+        <v>0.3842623413930868</v>
       </c>
     </row>
     <row r="108">
@@ -1942,10 +1910,10 @@
         <v>40664</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4446636424731183</v>
+        <v>0.474835685483871</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4566803921471169</v>
+        <v>0.4118370500244007</v>
       </c>
     </row>
     <row r="109">
@@ -1956,10 +1924,10 @@
         <v>40695</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4811041666666667</v>
+        <v>0.4537096774193548</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4886211622428139</v>
+        <v>0.4470837621078129</v>
       </c>
     </row>
     <row r="110">
@@ -1970,10 +1938,10 @@
         <v>40725</v>
       </c>
       <c r="C110" t="n">
-        <v>0.474835685483871</v>
+        <v>0.3388523457269381</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4839919863149736</v>
+        <v>0.4639630286852309</v>
       </c>
     </row>
     <row r="111">
@@ -1984,10 +1952,10 @@
         <v>40756</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4537096774193548</v>
+        <v>0.3253827862374497</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4362997812490512</v>
+        <v>0.4450405022253762</v>
       </c>
     </row>
     <row r="112">
@@ -1998,10 +1966,10 @@
         <v>40787</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3388523457269381</v>
+        <v>0.2696773913043478</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3717536949505408</v>
+        <v>0.399071989527185</v>
       </c>
     </row>
     <row r="113">
@@ -2011,11 +1979,9 @@
       <c r="B113" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="C113" t="n">
-        <v>0.3253827862374497</v>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>0.3288159979260421</v>
+        <v>0.3549737811224946</v>
       </c>
     </row>
     <row r="114">
@@ -2026,10 +1992,10 @@
         <v>40848</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2696773913043478</v>
+        <v>0.2892668119331065</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3267326218230842</v>
+        <v>0.3374774617816375</v>
       </c>
     </row>
     <row r="115">
@@ -2040,11 +2006,9 @@
         <v>40878</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206960871011722</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.3526390888520958</v>
-      </c>
+        <v>0.2865126363793125</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2054,10 +2018,10 @@
         <v>40909</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2892668119331065</v>
+        <v>0.2596955226328577</v>
       </c>
       <c r="D116" t="n">
-        <v>0.378433926624522</v>
+        <v>0.3660054503073773</v>
       </c>
     </row>
     <row r="117">
@@ -2068,10 +2032,10 @@
         <v>40940</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2865126363793125</v>
+        <v>0.3100423611111111</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3894719621243183</v>
+        <v>0.3748790240842976</v>
       </c>
     </row>
     <row r="118">
@@ -2082,10 +2046,10 @@
         <v>40969</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2596955226328577</v>
+        <v>0.4331908602150538</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3962256227261107</v>
+        <v>0.3755181543033778</v>
       </c>
     </row>
     <row r="119">
@@ -2096,10 +2060,10 @@
         <v>41000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3100423611111111</v>
+        <v>0.4998222222222222</v>
       </c>
       <c r="D119" t="n">
-        <v>0.418052469334016</v>
+        <v>0.3843506512156535</v>
       </c>
     </row>
     <row r="120">
@@ -2110,10 +2074,10 @@
         <v>41030</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4331908602150538</v>
+        <v>0.4654321460573477</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4568448264310931</v>
+        <v>0.4119253598469671</v>
       </c>
     </row>
     <row r="121">
@@ -2124,10 +2088,10 @@
         <v>41061</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4998222222222222</v>
+        <v>0.4193823057007665</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4887855965267902</v>
+        <v>0.4471720719303789</v>
       </c>
     </row>
     <row r="122">
@@ -2138,10 +2102,10 @@
         <v>41091</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4654321460573477</v>
+        <v>0.2761801342226614</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4841564205989502</v>
+        <v>0.4640513385077973</v>
       </c>
     </row>
     <row r="123">
@@ -2152,10 +2116,10 @@
         <v>41122</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4193823057007665</v>
+        <v>0.2657691775751909</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4364642155330265</v>
+        <v>0.4451288120479427</v>
       </c>
     </row>
     <row r="124">
@@ -2166,10 +2130,10 @@
         <v>41153</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2761801342226614</v>
+        <v>0.3068663121999372</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3719181292345178</v>
+        <v>0.3991602993497522</v>
       </c>
     </row>
     <row r="125">
@@ -2180,10 +2144,10 @@
         <v>41183</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2657691775751909</v>
+        <v>0.3538967181210602</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3289804322100186</v>
+        <v>0.3550620909450606</v>
       </c>
     </row>
     <row r="126">
@@ -2194,10 +2158,10 @@
         <v>41214</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3068663121999372</v>
+        <v>0.3612677884615385</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3268970561070603</v>
+        <v>0.337565771604204</v>
       </c>
     </row>
     <row r="127">
@@ -2208,10 +2172,10 @@
         <v>41244</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3538967181210602</v>
+        <v>0.4720863075196409</v>
       </c>
       <c r="D127" t="n">
-        <v>0.352803523136072</v>
+        <v>0.3476778786074247</v>
       </c>
     </row>
     <row r="128">
@@ -2222,10 +2186,10 @@
         <v>41275</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3612677884615385</v>
+        <v>0.5004218465386818</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3785983609084984</v>
+        <v>0.3660937601299438</v>
       </c>
     </row>
     <row r="129">
@@ -2235,11 +2199,9 @@
       <c r="B129" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="C129" t="n">
-        <v>0.4720863075196409</v>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>0.3896363964082944</v>
+        <v>0.3749673339068642</v>
       </c>
     </row>
     <row r="130">
@@ -2250,10 +2212,10 @@
         <v>41334</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5005116762877858</v>
+        <v>0.5467746026180459</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3963900570100867</v>
+        <v>0.3756064641259442</v>
       </c>
     </row>
     <row r="131">
@@ -2263,12 +2225,8 @@
       <c r="B131" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="C131" t="n">
-        <v>0.589054214529379</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.4182169036179921</v>
-      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2277,11 +2235,9 @@
       <c r="B132" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="C132" t="n">
-        <v>0.5467746026180459</v>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>0.4570092607150693</v>
+        <v>0.4120136696695331</v>
       </c>
     </row>
     <row r="133">
@@ -2292,11 +2248,9 @@
         <v>41426</v>
       </c>
       <c r="C133" t="n">
-        <v>0.55880011205917</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.4889500308107665</v>
-      </c>
+        <v>0.4740585164407044</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2306,11 +2260,9 @@
         <v>41456</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5800234728066075</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.4843208548829256</v>
-      </c>
+        <v>0.3800378051346802</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2320,10 +2272,10 @@
         <v>41487</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4740585164407044</v>
+        <v>0.3830869157918597</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4366286498170035</v>
+        <v>0.4452171218705087</v>
       </c>
     </row>
     <row r="136">
@@ -2334,10 +2286,10 @@
         <v>41518</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3800378051346802</v>
+        <v>0.3435445162838961</v>
       </c>
       <c r="D136" t="n">
-        <v>0.372082563518494</v>
+        <v>0.3992486091723173</v>
       </c>
     </row>
     <row r="137">
@@ -2348,10 +2300,10 @@
         <v>41548</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3830869157918597</v>
+        <v>0.3663935742157521</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3291448664939944</v>
+        <v>0.3551504007676276</v>
       </c>
     </row>
     <row r="138">
@@ -2362,10 +2314,10 @@
         <v>41579</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3435445162838961</v>
+        <v>0.3198797154731458</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3270614903910367</v>
+        <v>0.3376540814267704</v>
       </c>
     </row>
     <row r="139">
@@ -2376,10 +2328,10 @@
         <v>41609</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3663935742157521</v>
+        <v>0.3787244649007235</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3529679574200486</v>
+        <v>0.3477661884299915</v>
       </c>
     </row>
     <row r="140">
@@ -2390,10 +2342,10 @@
         <v>41640</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3198797154731458</v>
+        <v>0.3991855106454126</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3787627951924743</v>
+        <v>0.3661820699525104</v>
       </c>
     </row>
     <row r="141">
@@ -2404,10 +2356,10 @@
         <v>41671</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3787244649007235</v>
+        <v>0.3633362268518518</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3898008306922706</v>
+        <v>0.3750556437294306</v>
       </c>
     </row>
     <row r="142">
@@ -2418,10 +2370,10 @@
         <v>41699</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3991855106454126</v>
+        <v>0.4377993951612904</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3965544912940629</v>
+        <v>0.3756947739485107</v>
       </c>
     </row>
     <row r="143">
@@ -2432,10 +2384,10 @@
         <v>41730</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3633362268518518</v>
+        <v>0.5093037037037037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4183813379019679</v>
+        <v>0.3845272708607863</v>
       </c>
     </row>
     <row r="144">
@@ -2446,10 +2398,10 @@
         <v>41760</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4377993951612904</v>
+        <v>0.5191221038146442</v>
       </c>
       <c r="D144" t="n">
-        <v>0.457173694999046</v>
+        <v>0.4121019794921</v>
       </c>
     </row>
     <row r="145">
@@ -2460,10 +2412,10 @@
         <v>41791</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5093037037037037</v>
+        <v>0.5018717517921147</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4891144650947425</v>
+        <v>0.4473486915755114</v>
       </c>
     </row>
     <row r="146">
@@ -2474,10 +2426,10 @@
         <v>41821</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5191221038146442</v>
+        <v>0.4135798611111111</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4844852891669023</v>
+        <v>0.4642279581529303</v>
       </c>
     </row>
     <row r="147">
@@ -2488,10 +2440,10 @@
         <v>41852</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5018717517921147</v>
+        <v>0.342323541022831</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4367930841009789</v>
+        <v>0.4453054316930757</v>
       </c>
     </row>
     <row r="148">
@@ -2502,10 +2454,10 @@
         <v>41883</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4135798611111111</v>
+        <v>0.3749649511081448</v>
       </c>
       <c r="D148" t="n">
-        <v>0.372246997802471</v>
+        <v>0.3993369189948845</v>
       </c>
     </row>
     <row r="149">
@@ -2516,10 +2468,10 @@
         <v>41913</v>
       </c>
       <c r="C149" t="n">
-        <v>0.342323541022831</v>
+        <v>0.367521912624699</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3293093007779703</v>
+        <v>0.3552387105901936</v>
       </c>
     </row>
     <row r="150">
@@ -2530,10 +2482,10 @@
         <v>41944</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3749649511081448</v>
+        <v>0.3435295641159433</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3272259246750126</v>
+        <v>0.3377423912493369</v>
       </c>
     </row>
     <row r="151">
@@ -2544,10 +2496,10 @@
         <v>41974</v>
       </c>
       <c r="C151" t="n">
-        <v>0.367521912624699</v>
+        <v>0.4492909144254221</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3531323917040243</v>
+        <v>0.3478544982525581</v>
       </c>
     </row>
     <row r="152">
@@ -2558,10 +2510,10 @@
         <v>42005</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3435295641159433</v>
+        <v>0.3989595746754933</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3789272294764507</v>
+        <v>0.3662703797750767</v>
       </c>
     </row>
     <row r="153">
@@ -2572,10 +2524,10 @@
         <v>42036</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4492909144254221</v>
+        <v>0.4147045555189577</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3899652649762467</v>
+        <v>0.3751439535519971</v>
       </c>
     </row>
     <row r="154">
@@ -2586,10 +2538,10 @@
         <v>42064</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3989595746754933</v>
+        <v>0.4187689292114695</v>
       </c>
       <c r="D154" t="n">
-        <v>0.396718925578039</v>
+        <v>0.3757830837710772</v>
       </c>
     </row>
     <row r="155">
@@ -2600,10 +2552,10 @@
         <v>42095</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4147045555189577</v>
+        <v>0.4899406158505343</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4185457721859445</v>
+        <v>0.3846155806833524</v>
       </c>
     </row>
     <row r="156">
@@ -2614,10 +2566,10 @@
         <v>42125</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4187689292114695</v>
+        <v>0.4420103046594982</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4573381292830215</v>
+        <v>0.412190289314666</v>
       </c>
     </row>
     <row r="157">
@@ -2628,10 +2580,10 @@
         <v>42156</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4899406158505343</v>
+        <v>0.4283641353046595</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4892788993787189</v>
+        <v>0.4474370013980783</v>
       </c>
     </row>
     <row r="158">
@@ -2642,10 +2594,10 @@
         <v>42186</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4420103046594982</v>
+        <v>0.3048376157407408</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4846497234508788</v>
+        <v>0.4643162679754967</v>
       </c>
     </row>
     <row r="159">
@@ -2656,10 +2608,10 @@
         <v>42217</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4283641353046595</v>
+        <v>0.3088503142710752</v>
       </c>
       <c r="D159" t="n">
-        <v>0.436957518384956</v>
+        <v>0.4453937415156417</v>
       </c>
     </row>
     <row r="160">
@@ -2670,10 +2622,10 @@
         <v>42248</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3048376157407408</v>
+        <v>0.2651702808189129</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3724114320864464</v>
+        <v>0.3994252288174517</v>
       </c>
     </row>
     <row r="161">
@@ -2684,10 +2636,10 @@
         <v>42278</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3088503142710752</v>
+        <v>0.2902719884785628</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3294737350619468</v>
+        <v>0.3553270204127606</v>
       </c>
     </row>
     <row r="162">
@@ -2698,10 +2650,10 @@
         <v>42309</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2651394937818758</v>
+        <v>0.3446054160636231</v>
       </c>
       <c r="D162" t="n">
-        <v>0.327390358958989</v>
+        <v>0.3378307010719034</v>
       </c>
     </row>
     <row r="163">
@@ -2712,10 +2664,10 @@
         <v>42339</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2902719884785628</v>
+        <v>0.3814176790804145</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3532968259880001</v>
+        <v>0.3479428080751243</v>
       </c>
     </row>
     <row r="164">
@@ -2726,10 +2678,10 @@
         <v>42370</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3446054160636231</v>
+        <v>0.4258950763323983</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3790916637604267</v>
+        <v>0.3663586895976434</v>
       </c>
     </row>
     <row r="165">
@@ -2740,10 +2692,10 @@
         <v>42401</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3814176790804145</v>
+        <v>0.4251576179976852</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3901296992602229</v>
+        <v>0.3752322633745635</v>
       </c>
     </row>
     <row r="166">
@@ -2754,10 +2706,10 @@
         <v>42430</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4258950763323983</v>
+        <v>0.4942947926143447</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3968833598620151</v>
+        <v>0.3758713935936436</v>
       </c>
     </row>
     <row r="167">
@@ -2767,11 +2719,9 @@
       <c r="B167" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="C167" t="n">
-        <v>0.4251576179976852</v>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>0.4187102064699202</v>
+        <v>0.3847038905059192</v>
       </c>
     </row>
     <row r="168">
@@ -2781,11 +2731,9 @@
       <c r="B168" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="C168" t="n">
-        <v>0.4942947926143447</v>
-      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>0.4575025635669983</v>
+        <v>0.4122785991372319</v>
       </c>
     </row>
     <row r="169">
@@ -2796,11 +2744,9 @@
         <v>42522</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5503395729861111</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.4894433336626953</v>
-      </c>
+        <v>0.453486033232436</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -2810,11 +2756,9 @@
         <v>42552</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5623858938782992</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.4848141577348546</v>
-      </c>
+        <v>0.4021133633956916</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -2824,10 +2768,10 @@
         <v>42583</v>
       </c>
       <c r="C171" t="n">
-        <v>0.453486033232436</v>
+        <v>0.3010894466784924</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4371219526689313</v>
+        <v>0.4454820513382077</v>
       </c>
     </row>
     <row r="172">
@@ -2838,10 +2782,10 @@
         <v>42614</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4021133633956916</v>
+        <v>0.2685673265554366</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3725758663704218</v>
+        <v>0.3995135386400175</v>
       </c>
     </row>
     <row r="173">
@@ -2852,10 +2796,10 @@
         <v>42644</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3010894466784924</v>
+        <v>0.3065875116251687</v>
       </c>
       <c r="D173" t="n">
-        <v>0.3296381693459233</v>
+        <v>0.3554153302353266</v>
       </c>
     </row>
     <row r="174">
@@ -2866,10 +2810,10 @@
         <v>42675</v>
       </c>
       <c r="C174" t="n">
-        <v>0.268450228230626</v>
+        <v>0.2945253366599462</v>
       </c>
       <c r="D174" t="n">
-        <v>0.327554793242965</v>
+        <v>0.3379190108944699</v>
       </c>
     </row>
     <row r="175">
@@ -2880,10 +2824,10 @@
         <v>42705</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3065875116251687</v>
+        <v>0.2559552393122874</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3534612602719766</v>
+        <v>0.3480311178976905</v>
       </c>
     </row>
     <row r="176">
@@ -2894,10 +2838,10 @@
         <v>42736</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2945253366599462</v>
+        <v>0.2877040079726702</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3792560980444026</v>
+        <v>0.3664469994202096</v>
       </c>
     </row>
     <row r="177">
@@ -2908,10 +2852,10 @@
         <v>42767</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2559552393122874</v>
+        <v>0.3054765519972368</v>
       </c>
       <c r="D177" t="n">
-        <v>0.390294133544199</v>
+        <v>0.37532057319713</v>
       </c>
     </row>
     <row r="178">
@@ -2922,10 +2866,10 @@
         <v>42795</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2877040079726702</v>
+        <v>0.3915079720878136</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3970477941459913</v>
+        <v>0.3759597034162101</v>
       </c>
     </row>
     <row r="179">
@@ -2936,10 +2880,10 @@
         <v>42826</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3054765519972368</v>
+        <v>0.4361375405615942</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4188746407538976</v>
+        <v>0.3847922003284854</v>
       </c>
     </row>
     <row r="180">
@@ -2950,10 +2894,10 @@
         <v>42856</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3915079720878136</v>
+        <v>0.4323410171012545</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4576669978509739</v>
+        <v>0.4123669089597989</v>
       </c>
     </row>
     <row r="181">
@@ -2964,10 +2908,10 @@
         <v>42887</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4361375405615942</v>
+        <v>0.4311594109294647</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4896077679466712</v>
+        <v>0.447613621043212</v>
       </c>
     </row>
     <row r="182">
@@ -2978,10 +2922,10 @@
         <v>42917</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4323410171012545</v>
+        <v>0.321720239324678</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4849785920188304</v>
+        <v>0.4644928876206297</v>
       </c>
     </row>
     <row r="183">
@@ -2992,10 +2936,10 @@
         <v>42948</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4311594109294647</v>
+        <v>0.2989518642489712</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4372863869529083</v>
+        <v>0.4455703611607746</v>
       </c>
     </row>
     <row r="184">
@@ -3006,10 +2950,10 @@
         <v>42979</v>
       </c>
       <c r="C184" t="n">
-        <v>0.321720239324678</v>
+        <v>0.2790024159375</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3727403006543988</v>
+        <v>0.3996018484625833</v>
       </c>
     </row>
     <row r="185">
@@ -3020,10 +2964,10 @@
         <v>43009</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2989518642489712</v>
+        <v>0.3588152017294531</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3298026036298992</v>
+        <v>0.3555036400578935</v>
       </c>
     </row>
     <row r="186">
@@ -3034,10 +2978,10 @@
         <v>43040</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2790024159375</v>
+        <v>0.434746483614296</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3277192275269409</v>
+        <v>0.3380073207170363</v>
       </c>
     </row>
     <row r="187">
@@ -3048,10 +2992,10 @@
         <v>43070</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3612678737239095</v>
+        <v>0.417880084375</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3536256945559524</v>
+        <v>0.3481194277202573</v>
       </c>
     </row>
     <row r="188">
@@ -3062,10 +3006,10 @@
         <v>43101</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4348249431982137</v>
+        <v>0.5025113525726674</v>
       </c>
       <c r="D188" t="n">
-        <v>0.379420532328379</v>
+        <v>0.3665353092427759</v>
       </c>
     </row>
     <row r="189">
@@ -3076,10 +3020,10 @@
         <v>43132</v>
       </c>
       <c r="C189" t="n">
-        <v>0.417880084375</v>
+        <v>0.5457476430555556</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3904585678281754</v>
+        <v>0.3754088830196964</v>
       </c>
     </row>
     <row r="190">
@@ -3090,10 +3034,10 @@
         <v>43160</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5042414868941874</v>
+        <v>0.545742625081953</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3972122284299677</v>
+        <v>0.3760480132387766</v>
       </c>
     </row>
     <row r="191">
@@ -3103,11 +3047,9 @@
       <c r="B191" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="C191" t="n">
-        <v>0.5457476430555556</v>
-      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>0.4190390750378734</v>
+        <v>0.3848805101510526</v>
       </c>
     </row>
     <row r="192">
@@ -3118,10 +3060,10 @@
         <v>43221</v>
       </c>
       <c r="C192" t="n">
-        <v>0.545742625081953</v>
+        <v>0.5121458341285842</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4578314321349506</v>
+        <v>0.4124552187823659</v>
       </c>
     </row>
     <row r="193">
@@ -3132,11 +3074,9 @@
         <v>43252</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5807428206941699</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.4897722022306472</v>
-      </c>
+        <v>0.5159991245661383</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -3146,10 +3086,10 @@
         <v>43282</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5121458341285842</v>
+        <v>0.4291961931879025</v>
       </c>
       <c r="D194" t="n">
-        <v>0.485143026302807</v>
+        <v>0.4645811974431961</v>
       </c>
     </row>
     <row r="195">
@@ -3160,10 +3100,10 @@
         <v>43313</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5159991245661383</v>
+        <v>0.2974162286295192</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4374508212368837</v>
+        <v>0.4456586709833417</v>
       </c>
     </row>
     <row r="196">
@@ -3174,10 +3114,10 @@
         <v>43344</v>
       </c>
       <c r="C196" t="n">
-        <v>0.4291961931879025</v>
+        <v>0.2748544022159091</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3729047349383758</v>
+        <v>0.3996901582851505</v>
       </c>
     </row>
     <row r="197">
@@ -3188,10 +3128,10 @@
         <v>43374</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2974162286295192</v>
+        <v>0.3367541798975326</v>
       </c>
       <c r="D197" t="n">
-        <v>0.3299670379138757</v>
+        <v>0.3555919498804596</v>
       </c>
     </row>
     <row r="198">
@@ -3202,10 +3142,10 @@
         <v>43405</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2748544022159091</v>
+        <v>0.3519732668553103</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3278836618109173</v>
+        <v>0.3380956305396028</v>
       </c>
     </row>
     <row r="199">
@@ -3216,10 +3156,10 @@
         <v>43435</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3367541798975326</v>
+        <v>0.4050690330729166</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3537901288399282</v>
+        <v>0.3482077375428235</v>
       </c>
     </row>
     <row r="200">
@@ -3230,10 +3170,10 @@
         <v>43466</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3519732668553103</v>
+        <v>0.3658533218587701</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3795849666123554</v>
+        <v>0.3666236190653426</v>
       </c>
     </row>
     <row r="201">
@@ -3244,10 +3184,10 @@
         <v>43497</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4050690330729166</v>
+        <v>0.3688524985084541</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3906230021121515</v>
+        <v>0.3754971928422629</v>
       </c>
     </row>
     <row r="202">
@@ -3258,10 +3198,10 @@
         <v>43525</v>
       </c>
       <c r="C202" t="n">
-        <v>0.3658533218587701</v>
+        <v>0.400762008583158</v>
       </c>
       <c r="D202" t="n">
-        <v>0.397376662713944</v>
+        <v>0.3761363230613431</v>
       </c>
     </row>
     <row r="203">
@@ -3272,10 +3212,10 @@
         <v>43556</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3688524985084541</v>
+        <v>0.4702181387609649</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4192035093218491</v>
+        <v>0.3849688199736188</v>
       </c>
     </row>
     <row r="204">
@@ -3285,11 +3225,9 @@
       <c r="B204" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="C204" t="n">
-        <v>0.400762008583158</v>
-      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
-        <v>0.4579958664189262</v>
+        <v>0.4125435286049328</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3237,9 @@
       <c r="B205" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="C205" t="n">
-        <v>0.4702181387609649</v>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>0.4899366365146235</v>
+        <v>0.4477902406883442</v>
       </c>
     </row>
   </sheetData>
